--- a/LostTCV_and_Cancellations_2023.xlsx
+++ b/LostTCV_and_Cancellations_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>CVR</t>
   </si>
@@ -34,6 +34,12 @@
     <t>12530633</t>
   </si>
   <si>
+    <t>13893179</t>
+  </si>
+  <si>
+    <t>14364641</t>
+  </si>
+  <si>
     <t>16049441</t>
   </si>
   <si>
@@ -58,9 +64,15 @@
     <t>20309687</t>
   </si>
   <si>
+    <t>21699780</t>
+  </si>
+  <si>
     <t>25086589</t>
   </si>
   <si>
+    <t>26317797</t>
+  </si>
+  <si>
     <t>26688205</t>
   </si>
   <si>
@@ -70,6 +82,15 @@
     <t>27351034</t>
   </si>
   <si>
+    <t>27524958</t>
+  </si>
+  <si>
+    <t>28979355</t>
+  </si>
+  <si>
+    <t>29186898</t>
+  </si>
+  <si>
     <t>30715993</t>
   </si>
   <si>
@@ -82,12 +103,18 @@
     <t>33372477</t>
   </si>
   <si>
+    <t>33738811</t>
+  </si>
+  <si>
     <t>34082200</t>
   </si>
   <si>
     <t>34725101</t>
   </si>
   <si>
+    <t>35432604</t>
+  </si>
+  <si>
     <t>35802495</t>
   </si>
   <si>
@@ -106,7 +133,13 @@
     <t>46936728</t>
   </si>
   <si>
+    <t>47252059</t>
+  </si>
+  <si>
     <t>55164711</t>
+  </si>
+  <si>
+    <t>67437853</t>
   </si>
   <si>
     <t>75128711</t>
@@ -470,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>199392.4</v>
+        <v>40172</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -536,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>125865</v>
+        <v>45106</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -547,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>116330</v>
+        <v>199392.4</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -558,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>80135</v>
+        <v>125865</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -569,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>207498.12</v>
+        <v>116330</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -580,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>922780</v>
+        <v>80135</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -591,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>51093.54</v>
+        <v>207498.12</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -602,7 +635,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>76044</v>
+        <v>922780</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -613,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>278110</v>
+        <v>51093.54</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -624,7 +657,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>74972.74000000001</v>
+        <v>76044</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -635,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>75401.86</v>
+        <v>21650.08</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -646,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>71414.8</v>
+        <v>278110</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -657,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>6371</v>
+        <v>132000</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -668,7 +701,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>6137</v>
+        <v>74972.74000000001</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -679,7 +712,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>74171</v>
+        <v>75401.86</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -690,7 +723,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>70780</v>
+        <v>71414.8</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -701,7 +734,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>172800</v>
+        <v>163235.74</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -712,7 +745,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>30453</v>
+        <v>20119</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -723,7 +756,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>171628</v>
+        <v>23777</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -734,7 +767,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>140432</v>
+        <v>6371</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -745,7 +778,7 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>129827.5</v>
+        <v>6137</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -756,7 +789,7 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>98144</v>
+        <v>74171</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -767,7 +800,7 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>32723</v>
+        <v>70780</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -778,7 +811,7 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>160611</v>
+        <v>105096</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -789,7 +822,7 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>46106</v>
+        <v>172800</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -800,7 +833,7 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>4513</v>
+        <v>30453</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -811,9 +844,130 @@
         <v>32</v>
       </c>
       <c r="B31">
+        <v>128519</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>171628</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>140432</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>129827.5</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>98144</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>32723</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>160611</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>31857</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>46106</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>30097</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>4513</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
         <v>258702.76</v>
       </c>
-      <c r="C31">
+      <c r="C42">
         <v>1</v>
       </c>
     </row>
